--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/累计折旧.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/累计折旧.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>548.42134</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1181.98349</v>
-      </c>
-      <c r="D2" t="n">
-        <v>144.12249</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.43101</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90.34695000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1883.47761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>462.26314</v>
-      </c>
-      <c r="I2" t="n">
-        <v>310.9097</v>
-      </c>
-      <c r="J2" t="n">
-        <v>204.64672</v>
-      </c>
-      <c r="K2" t="n">
-        <v>338.59912</v>
-      </c>
-      <c r="L2" t="n">
-        <v>43.49705</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67.56434</v>
-      </c>
-      <c r="N2" t="n">
-        <v>801.86903</v>
-      </c>
-      <c r="O2" t="n">
-        <v>581.18848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>125.29325</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>225.29239</v>
-      </c>
-      <c r="R2" t="n">
-        <v>92.40308</v>
-      </c>
-      <c r="S2" t="n">
-        <v>66.40115</v>
-      </c>
-      <c r="T2" t="n">
-        <v>175.46412</v>
-      </c>
-      <c r="U2" t="n">
-        <v>299.23825</v>
-      </c>
-      <c r="V2" t="n">
-        <v>115.97808</v>
-      </c>
-      <c r="W2" t="n">
-        <v>964.87485</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4766.8212</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>849.33778</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>676.97907</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>114.58368</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1194.29508</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2407.64483</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1115.05336</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>348.91631</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>25847.91227</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>328.06784</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>376.15895</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1176.87933</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>111.24365</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>260.68918</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>450.81157</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>397.73308</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2351.73797</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>57.26346</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>576.37719</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1383.6827</v>
-      </c>
-      <c r="D3" t="n">
-        <v>163.61655</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.65847</v>
-      </c>
-      <c r="F3" t="n">
-        <v>102.60101</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2083.52733</v>
-      </c>
-      <c r="H3" t="n">
-        <v>380.60567</v>
-      </c>
-      <c r="I3" t="n">
-        <v>356.89442</v>
-      </c>
-      <c r="J3" t="n">
-        <v>262.30747</v>
-      </c>
-      <c r="K3" t="n">
-        <v>395.36049</v>
-      </c>
-      <c r="L3" t="n">
-        <v>51.92676</v>
-      </c>
-      <c r="M3" t="n">
-        <v>77.57408</v>
-      </c>
-      <c r="N3" t="n">
-        <v>850.36665</v>
-      </c>
-      <c r="O3" t="n">
-        <v>650.55873</v>
-      </c>
-      <c r="P3" t="n">
-        <v>135.31645</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>251.21195</v>
-      </c>
-      <c r="R3" t="n">
-        <v>105.98031</v>
-      </c>
-      <c r="S3" t="n">
-        <v>66.01376</v>
-      </c>
-      <c r="T3" t="n">
-        <v>195.46309</v>
-      </c>
-      <c r="U3" t="n">
-        <v>359.25349</v>
-      </c>
-      <c r="V3" t="n">
-        <v>120.23974</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1111.60282</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5777.96228</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1030.88703</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>789.6709</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>131.97648</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1422.57476</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2886.70059</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1212.34516</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>405.74019</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>29666.82654</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>382.62527</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>420.2037</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1274.70116</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>121.08749</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>308.04987</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>487.59442</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>446.30467</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2689.89205</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>62.45306</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>596.13381</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1508.67655</v>
-      </c>
-      <c r="D4" t="n">
-        <v>178.19491</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.46874</v>
-      </c>
-      <c r="F4" t="n">
-        <v>116.78764</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2332.68734</v>
-      </c>
-      <c r="H4" t="n">
-        <v>428.77656</v>
-      </c>
-      <c r="I4" t="n">
-        <v>410.70839</v>
-      </c>
-      <c r="J4" t="n">
-        <v>262.72998</v>
-      </c>
-      <c r="K4" t="n">
-        <v>449.17498</v>
-      </c>
-      <c r="L4" t="n">
-        <v>61.29247</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94.58503</v>
-      </c>
-      <c r="N4" t="n">
-        <v>941.56736</v>
-      </c>
-      <c r="O4" t="n">
-        <v>710.32945</v>
-      </c>
-      <c r="P4" t="n">
-        <v>135.65645</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>282.02108</v>
-      </c>
-      <c r="R4" t="n">
-        <v>123.63835</v>
-      </c>
-      <c r="S4" t="n">
-        <v>67.69982</v>
-      </c>
-      <c r="T4" t="n">
-        <v>216.18156</v>
-      </c>
-      <c r="U4" t="n">
-        <v>407.40359</v>
-      </c>
-      <c r="V4" t="n">
-        <v>141.78576</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1262.98377</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6616.08603</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1278.79003</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>876.51248</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>141.11303</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1545.59336</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3182.82607</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1313.4555</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>475.93064</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>33067.62956</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>452.08923</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>481.08839</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1414.00317</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>128.6357</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>342.49492</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>520.80529</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>510.39837</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2841.45113</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>74.87399000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
